--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il7</t>
+  </si>
+  <si>
+    <t>Il2rg</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Il7</t>
-  </si>
-  <si>
-    <t>Il2rg</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H2">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I2">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J2">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N2">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O2">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P2">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q2">
-        <v>13.936843367691</v>
+        <v>11.675955887388</v>
       </c>
       <c r="R2">
-        <v>55.747373470764</v>
+        <v>46.703823549552</v>
       </c>
       <c r="S2">
-        <v>0.04381097582375347</v>
+        <v>0.04496795134292335</v>
       </c>
       <c r="T2">
-        <v>0.02314172285499701</v>
+        <v>0.02544263396137991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H3">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I3">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J3">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.704871</v>
       </c>
       <c r="O3">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P3">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q3">
-        <v>0.1540083852043333</v>
+        <v>0.1873406022705</v>
       </c>
       <c r="R3">
-        <v>0.924050311226</v>
+        <v>1.124043613623</v>
       </c>
       <c r="S3">
-        <v>0.0004841309802249874</v>
+        <v>0.0007215103558718895</v>
       </c>
       <c r="T3">
-        <v>0.0003835896630660178</v>
+        <v>0.0006123402335077352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H4">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I4">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J4">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N4">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O4">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P4">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q4">
-        <v>14.44480985520733</v>
+        <v>21.693025104255</v>
       </c>
       <c r="R4">
-        <v>86.66885913124401</v>
+        <v>130.15815062553</v>
       </c>
       <c r="S4">
-        <v>0.04540778701813386</v>
+        <v>0.08354698379964316</v>
       </c>
       <c r="T4">
-        <v>0.03597777963881782</v>
+        <v>0.07090567606187517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H5">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I5">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J5">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N5">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O5">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P5">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q5">
-        <v>1.5648768776685</v>
+        <v>5.438268283646249</v>
       </c>
       <c r="R5">
-        <v>6.259507510674</v>
+        <v>21.753073134585</v>
       </c>
       <c r="S5">
-        <v>0.004919247583252706</v>
+        <v>0.02094456213498722</v>
       </c>
       <c r="T5">
-        <v>0.002598432518022714</v>
+        <v>0.01185032477504044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H6">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I6">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J6">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N6">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O6">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P6">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q6">
-        <v>8.204629375150001</v>
+        <v>9.033866947449001</v>
       </c>
       <c r="R6">
-        <v>49.2277762509</v>
+        <v>54.203201684694</v>
       </c>
       <c r="S6">
-        <v>0.02579155191130679</v>
+        <v>0.03479239672103693</v>
       </c>
       <c r="T6">
-        <v>0.0204353224885757</v>
+        <v>0.02952803678986468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H7">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I7">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J7">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N7">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O7">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P7">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q7">
-        <v>19.39979709019067</v>
+        <v>12.8267461811385</v>
       </c>
       <c r="R7">
-        <v>116.398782541144</v>
+        <v>76.96047708683101</v>
       </c>
       <c r="S7">
-        <v>0.06098397024927448</v>
+        <v>0.04940002375175954</v>
       </c>
       <c r="T7">
-        <v>0.04831919781187322</v>
+        <v>0.04192541636202266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H8">
         <v>2.27851</v>
       </c>
       <c r="I8">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J8">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N8">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O8">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P8">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q8">
-        <v>39.05889969449001</v>
+        <v>26.90050830584</v>
       </c>
       <c r="R8">
-        <v>234.3533981669401</v>
+        <v>161.40304983504</v>
       </c>
       <c r="S8">
-        <v>0.1227830768468498</v>
+        <v>0.1036027165795955</v>
       </c>
       <c r="T8">
-        <v>0.09728424951446893</v>
+        <v>0.0879268206562645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H9">
         <v>2.27851</v>
       </c>
       <c r="I9">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J9">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.704871</v>
       </c>
       <c r="O9">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P9">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q9">
         <v>0.4316184024677778</v>
       </c>
       <c r="R9">
-        <v>3.884565622210001</v>
+        <v>3.88456562221</v>
       </c>
       <c r="S9">
-        <v>0.00135680820231072</v>
+        <v>0.001662304611980106</v>
       </c>
       <c r="T9">
-        <v>0.001612552044059572</v>
+        <v>0.002116177514245449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H10">
         <v>2.27851</v>
       </c>
       <c r="I10">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J10">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N10">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O10">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P10">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q10">
-        <v>40.48250843863778</v>
+        <v>49.97906874812222</v>
       </c>
       <c r="R10">
-        <v>364.34257594774</v>
+        <v>449.8116187330999</v>
       </c>
       <c r="S10">
-        <v>0.1272582428960666</v>
+        <v>0.1924858532617284</v>
       </c>
       <c r="T10">
-        <v>0.1512450612813194</v>
+        <v>0.2450418723182209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H11">
         <v>2.27851</v>
       </c>
       <c r="I11">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J11">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N11">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O11">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P11">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q11">
-        <v>4.385668073215</v>
+        <v>12.52935370299167</v>
       </c>
       <c r="R11">
-        <v>26.31400843929</v>
+        <v>75.17612221794998</v>
       </c>
       <c r="S11">
-        <v>0.01378650766586486</v>
+        <v>0.0482546673787106</v>
       </c>
       <c r="T11">
-        <v>0.01092341132135057</v>
+        <v>0.04095336130665918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H12">
         <v>2.27851</v>
       </c>
       <c r="I12">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J12">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N12">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O12">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P12">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q12">
-        <v>22.99400139183334</v>
+        <v>20.81333769993111</v>
       </c>
       <c r="R12">
-        <v>206.9460125265</v>
+        <v>187.32003929938</v>
       </c>
       <c r="S12">
-        <v>0.07228248266062447</v>
+        <v>0.08015901789979352</v>
       </c>
       <c r="T12">
-        <v>0.08590695793671031</v>
+        <v>0.1020455035864219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H13">
         <v>2.27851</v>
       </c>
       <c r="I13">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J13">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N13">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O13">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P13">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q13">
-        <v>54.36917877658223</v>
+        <v>29.55184102359666</v>
       </c>
       <c r="R13">
-        <v>489.3226089892401</v>
+        <v>265.96656921237</v>
       </c>
       <c r="S13">
-        <v>0.1709114979694867</v>
+        <v>0.1138138720340937</v>
       </c>
       <c r="T13">
-        <v>0.2031264882793387</v>
+        <v>0.1448894234377788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.05067566666666667</v>
+        <v>0.084886</v>
       </c>
       <c r="H14">
-        <v>0.152027</v>
+        <v>0.254658</v>
       </c>
       <c r="I14">
-        <v>0.03392009510219458</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J14">
-        <v>0.03670374857375732</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N14">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O14">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P14">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q14">
-        <v>2.606092290073</v>
+        <v>3.006539205072</v>
       </c>
       <c r="R14">
-        <v>15.636553740438</v>
+        <v>18.039235230432</v>
       </c>
       <c r="S14">
-        <v>0.008192346236705582</v>
+        <v>0.01157917261663395</v>
       </c>
       <c r="T14">
-        <v>0.006491010616998023</v>
+        <v>0.009827153839431474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.05067566666666667</v>
+        <v>0.084886</v>
       </c>
       <c r="H15">
-        <v>0.152027</v>
+        <v>0.254658</v>
       </c>
       <c r="I15">
-        <v>0.03392009510219458</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J15">
-        <v>0.03670374857375732</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.704871</v>
       </c>
       <c r="O15">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P15">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q15">
-        <v>0.02879849150188889</v>
+        <v>0.04823989323533334</v>
       </c>
       <c r="R15">
-        <v>0.259186423517</v>
+        <v>0.434159039118</v>
       </c>
       <c r="S15">
-        <v>9.052910918657009E-05</v>
+        <v>0.0001857877156025779</v>
       </c>
       <c r="T15">
-        <v>0.0001075928785049197</v>
+        <v>0.0002365148862294734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.05067566666666667</v>
+        <v>0.084886</v>
       </c>
       <c r="H16">
-        <v>0.152027</v>
+        <v>0.254658</v>
       </c>
       <c r="I16">
-        <v>0.03392009510219458</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J16">
-        <v>0.03670374857375732</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N16">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O16">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P16">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q16">
-        <v>2.701078472510889</v>
+        <v>5.585917853886667</v>
       </c>
       <c r="R16">
-        <v>24.309706252598</v>
+        <v>50.27326068498</v>
       </c>
       <c r="S16">
-        <v>0.008490938768212695</v>
+        <v>0.02151320925513833</v>
       </c>
       <c r="T16">
-        <v>0.01009138995721552</v>
+        <v>0.02738714033329391</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.05067566666666667</v>
+        <v>0.084886</v>
       </c>
       <c r="H17">
-        <v>0.152027</v>
+        <v>0.254658</v>
       </c>
       <c r="I17">
-        <v>0.03392009510219458</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J17">
-        <v>0.03670374857375732</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N17">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O17">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P17">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q17">
-        <v>0.2926210375055</v>
+        <v>1.400345030435</v>
       </c>
       <c r="R17">
-        <v>1.755726225033</v>
+        <v>8.402070182609998</v>
       </c>
       <c r="S17">
-        <v>0.0009198649121217098</v>
+        <v>0.005393189885200277</v>
       </c>
       <c r="T17">
-        <v>0.0007288330764187834</v>
+        <v>0.004577158355079071</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.05067566666666667</v>
+        <v>0.084886</v>
       </c>
       <c r="H18">
-        <v>0.152027</v>
+        <v>0.254658</v>
       </c>
       <c r="I18">
-        <v>0.03392009510219458</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J18">
-        <v>0.03670374857375732</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N18">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O18">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P18">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q18">
-        <v>1.534208342116667</v>
+        <v>2.326205701089334</v>
       </c>
       <c r="R18">
-        <v>13.80787507905</v>
+        <v>20.935851309804</v>
       </c>
       <c r="S18">
-        <v>0.004822839922338175</v>
+        <v>0.008958984239843414</v>
       </c>
       <c r="T18">
-        <v>0.005731893691159687</v>
+        <v>0.01140513048102094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.05067566666666667</v>
+        <v>0.084886</v>
       </c>
       <c r="H19">
-        <v>0.152027</v>
+        <v>0.254658</v>
       </c>
       <c r="I19">
-        <v>0.03392009510219458</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J19">
-        <v>0.03670374857375732</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N19">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O19">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P19">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q19">
-        <v>3.627626449683111</v>
+        <v>3.302865790094</v>
       </c>
       <c r="R19">
-        <v>32.648638047148</v>
+        <v>29.725792110846</v>
       </c>
       <c r="S19">
-        <v>0.01140357615362985</v>
+        <v>0.01272042388423059</v>
       </c>
       <c r="T19">
-        <v>0.01355302835346039</v>
+        <v>0.01619358738553611</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.0689105</v>
+        <v>0.232498</v>
       </c>
       <c r="H20">
-        <v>0.137821</v>
+        <v>0.464996</v>
       </c>
       <c r="I20">
-        <v>0.04612570228064317</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J20">
-        <v>0.03327400614485458</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N20">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O20">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P20">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q20">
-        <v>3.5438531857185</v>
+        <v>8.234742502895999</v>
       </c>
       <c r="R20">
-        <v>14.175412742874</v>
+        <v>32.938970011584</v>
       </c>
       <c r="S20">
-        <v>0.01114023184061713</v>
+        <v>0.03171470531091301</v>
       </c>
       <c r="T20">
-        <v>0.005884465090051665</v>
+        <v>0.01794401600075505</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.0689105</v>
+        <v>0.232498</v>
       </c>
       <c r="H21">
-        <v>0.137821</v>
+        <v>0.464996</v>
       </c>
       <c r="I21">
-        <v>0.04612570228064317</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J21">
-        <v>0.03327400614485458</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.704871</v>
       </c>
       <c r="O21">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P21">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q21">
-        <v>0.03916117101516667</v>
+        <v>0.1321263659193333</v>
       </c>
       <c r="R21">
-        <v>0.234967026091</v>
+        <v>0.792758195516</v>
       </c>
       <c r="S21">
-        <v>0.0001231045704763194</v>
+        <v>0.0005088621480829365</v>
       </c>
       <c r="T21">
-        <v>9.753897734235718E-05</v>
+        <v>0.0004318673516526488</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.0689105</v>
+        <v>0.232498</v>
       </c>
       <c r="H22">
-        <v>0.137821</v>
+        <v>0.464996</v>
       </c>
       <c r="I22">
-        <v>0.04612570228064317</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J22">
-        <v>0.03327400614485458</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N22">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O22">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P22">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q22">
-        <v>3.673018636425667</v>
+        <v>15.29951616512667</v>
       </c>
       <c r="R22">
-        <v>22.038111818554</v>
+        <v>91.79709699076</v>
       </c>
       <c r="S22">
-        <v>0.01154626814947847</v>
+        <v>0.05892347531278599</v>
       </c>
       <c r="T22">
-        <v>0.009148410843425185</v>
+        <v>0.05000789571276118</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.0689105</v>
+        <v>0.232498</v>
       </c>
       <c r="H23">
-        <v>0.137821</v>
+        <v>0.464996</v>
       </c>
       <c r="I23">
-        <v>0.04612570228064317</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J23">
-        <v>0.03327400614485458</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N23">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O23">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P23">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q23">
-        <v>0.39791606763975</v>
+        <v>3.835466612705</v>
       </c>
       <c r="R23">
-        <v>1.591664270559</v>
+        <v>15.34186645082</v>
       </c>
       <c r="S23">
-        <v>0.001250863682637224</v>
+        <v>0.01477164505253274</v>
       </c>
       <c r="T23">
-        <v>0.0006607280511035089</v>
+        <v>0.008357720261991958</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.0689105</v>
+        <v>0.232498</v>
       </c>
       <c r="H24">
-        <v>0.137821</v>
+        <v>0.464996</v>
       </c>
       <c r="I24">
-        <v>0.04612570228064317</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J24">
-        <v>0.03327400614485458</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N24">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O24">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P24">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q24">
-        <v>2.086268833025</v>
+        <v>6.371347137241333</v>
       </c>
       <c r="R24">
-        <v>12.51761299815</v>
+        <v>38.228082823448</v>
       </c>
       <c r="S24">
-        <v>0.006558262225820771</v>
+        <v>0.0245381560892858</v>
       </c>
       <c r="T24">
-        <v>0.005196283031364949</v>
+        <v>0.02082534243241059</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1969,16 +1969,16 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.0689105</v>
+        <v>0.232498</v>
       </c>
       <c r="H25">
-        <v>0.137821</v>
+        <v>0.464996</v>
       </c>
       <c r="I25">
-        <v>0.04612570228064317</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J25">
-        <v>0.03327400614485458</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N25">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O25">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P25">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q25">
-        <v>4.932970178867333</v>
+        <v>9.046364423642</v>
       </c>
       <c r="R25">
-        <v>29.597821073204</v>
+        <v>54.278186541852</v>
       </c>
       <c r="S25">
-        <v>0.01550697181161326</v>
+        <v>0.0348405286176265</v>
       </c>
       <c r="T25">
-        <v>0.01228658015156692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.3438793333333334</v>
-      </c>
-      <c r="H26">
-        <v>1.031638</v>
-      </c>
-      <c r="I26">
-        <v>0.2301779228100128</v>
-      </c>
-      <c r="J26">
-        <v>0.249067479928788</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>51.426897</v>
-      </c>
-      <c r="N26">
-        <v>102.853794</v>
-      </c>
-      <c r="O26">
-        <v>0.2415189642606735</v>
-      </c>
-      <c r="P26">
-        <v>0.1768487108054954</v>
-      </c>
-      <c r="Q26">
-        <v>17.684647055762</v>
-      </c>
-      <c r="R26">
-        <v>106.107882334572</v>
-      </c>
-      <c r="S26">
-        <v>0.05559233351274757</v>
-      </c>
-      <c r="T26">
-        <v>0.04404726272897977</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.3438793333333334</v>
-      </c>
-      <c r="H27">
-        <v>1.031638</v>
-      </c>
-      <c r="I27">
-        <v>0.2301779228100128</v>
-      </c>
-      <c r="J27">
-        <v>0.249067479928788</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.5682903333333333</v>
-      </c>
-      <c r="N27">
-        <v>1.704871</v>
-      </c>
-      <c r="O27">
-        <v>0.002668893141774033</v>
-      </c>
-      <c r="P27">
-        <v>0.002931386648116022</v>
-      </c>
-      <c r="Q27">
-        <v>0.1954233009664445</v>
-      </c>
-      <c r="R27">
-        <v>1.758809708698</v>
-      </c>
-      <c r="S27">
-        <v>0.0006143202795754361</v>
-      </c>
-      <c r="T27">
-        <v>0.0007301130851431545</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.3438793333333334</v>
-      </c>
-      <c r="H28">
-        <v>1.031638</v>
-      </c>
-      <c r="I28">
-        <v>0.2301779228100128</v>
-      </c>
-      <c r="J28">
-        <v>0.249067479928788</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>53.30129133333333</v>
-      </c>
-      <c r="N28">
-        <v>159.903874</v>
-      </c>
-      <c r="O28">
-        <v>0.2503217854381353</v>
-      </c>
-      <c r="P28">
-        <v>0.2749416707924686</v>
-      </c>
-      <c r="Q28">
-        <v>18.32921252951245</v>
-      </c>
-      <c r="R28">
-        <v>164.962912765612</v>
-      </c>
-      <c r="S28">
-        <v>0.0576185486062437</v>
-      </c>
-      <c r="T28">
-        <v>0.06847902907169061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.3438793333333334</v>
-      </c>
-      <c r="H29">
-        <v>1.031638</v>
-      </c>
-      <c r="I29">
-        <v>0.2301779228100128</v>
-      </c>
-      <c r="J29">
-        <v>0.249067479928788</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>5.7743895</v>
-      </c>
-      <c r="N29">
-        <v>11.548779</v>
-      </c>
-      <c r="O29">
-        <v>0.02711858293292921</v>
-      </c>
-      <c r="P29">
-        <v>0.01985718365943388</v>
-      </c>
-      <c r="Q29">
-        <v>1.985693211667</v>
-      </c>
-      <c r="R29">
-        <v>11.914159270002</v>
-      </c>
-      <c r="S29">
-        <v>0.006242099089052711</v>
-      </c>
-      <c r="T29">
-        <v>0.004945778692538305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.3438793333333334</v>
-      </c>
-      <c r="H30">
-        <v>1.031638</v>
-      </c>
-      <c r="I30">
-        <v>0.2301779228100128</v>
-      </c>
-      <c r="J30">
-        <v>0.249067479928788</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>30.27505</v>
-      </c>
-      <c r="N30">
-        <v>90.82515000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.14218238208967</v>
-      </c>
-      <c r="P30">
-        <v>0.1561664384127215</v>
-      </c>
-      <c r="Q30">
-        <v>10.41096401063334</v>
-      </c>
-      <c r="R30">
-        <v>93.69867609570001</v>
-      </c>
-      <c r="S30">
-        <v>0.03272724536957982</v>
-      </c>
-      <c r="T30">
-        <v>0.03889598126491082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.3438793333333334</v>
-      </c>
-      <c r="H31">
-        <v>1.031638</v>
-      </c>
-      <c r="I31">
-        <v>0.2301779228100128</v>
-      </c>
-      <c r="J31">
-        <v>0.249067479928788</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>71.58517466666667</v>
-      </c>
-      <c r="N31">
-        <v>214.755524</v>
-      </c>
-      <c r="O31">
-        <v>0.3361893921368179</v>
-      </c>
-      <c r="P31">
-        <v>0.3692546096817647</v>
-      </c>
-      <c r="Q31">
-        <v>24.61666214092356</v>
-      </c>
-      <c r="R31">
-        <v>221.549959268312</v>
-      </c>
-      <c r="S31">
-        <v>0.0773833759528136</v>
-      </c>
-      <c r="T31">
-        <v>0.09196931508552537</v>
+        <v>0.02956888595655643</v>
       </c>
     </row>
   </sheetData>
